--- a/data/xlsx/Baernreither_orgNames_2023.xlsx
+++ b/data/xlsx/Baernreither_orgNames_2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -296,12 +296,6 @@
     <t>&lt;orgName key="Abgeordnetenhaus" ref="https://d-nb.info/gnd/41998-9"&gt;</t>
   </si>
   <si>
-    <t>MinisteriumdesAeußern</t>
-  </si>
-  <si>
-    <t>&lt;orgName key="MinisteriumdesAeußern" ref="https://d-nb.info/gnd/119828-2"&gt;</t>
-  </si>
-  <si>
     <t>https://d-nb.info/gnd/2120665-X</t>
   </si>
   <si>
@@ -335,12 +329,6 @@
     <t>Fortschrittspartei</t>
   </si>
   <si>
-    <t>VerfassungstreuerGroßgrundbesitz</t>
-  </si>
-  <si>
-    <t>&lt;orgName key="VerfassungstreuerGroßgrundbesitz" ref="https://d-nb.info/gnd/2120665-X"&gt;</t>
-  </si>
-  <si>
     <t>Verfassungspartei</t>
   </si>
   <si>
@@ -371,9 +359,6 @@
     <t>&lt;orgName key="Polenklub" ref="https://d-nb.info/gnd/1050830423"&gt;</t>
   </si>
   <si>
-    <t>KonservativerGroßgrundbesitz</t>
-  </si>
-  <si>
     <t>DeutschradikalePartei</t>
   </si>
   <si>
@@ -386,9 +371,6 @@
     <t>DeutscheAgrarier</t>
   </si>
   <si>
-    <t>&lt;orgName key="KonservativerGroßgrundbesitz" ref=""&gt;</t>
-  </si>
-  <si>
     <t>Zentrum</t>
   </si>
   <si>
@@ -783,6 +765,24 @@
   </si>
   <si>
     <t>&lt;orgName key="Verwaltungsgerichtshof" ref="https://d-nb.info/gnd/35887-3"&gt;</t>
+  </si>
+  <si>
+    <t>MinisteriumdesAeussern</t>
+  </si>
+  <si>
+    <t>&lt;orgName key="MinisteriumdesAeussern" ref="https://d-nb.info/gnd/119828-2"&gt;</t>
+  </si>
+  <si>
+    <t>KonservativerGrossgrundbesitz</t>
+  </si>
+  <si>
+    <t>VerfassungstreuerGrossgrundbesitz</t>
+  </si>
+  <si>
+    <t>&lt;orgName key="KonservativerGrossgrundbesitz" ref=""&gt;</t>
+  </si>
+  <si>
+    <t>&lt;orgName key="VerfassungstreuerGrossgrundbesitz" ref="https://d-nb.info/gnd/2120665-X"&gt;</t>
   </si>
 </sst>
 </file>
@@ -1219,15 +1219,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" zoomScale="119" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="119" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="73.1640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="94.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1295,43 +1295,43 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
@@ -1343,7 +1343,7 @@
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
@@ -1355,7 +1355,7 @@
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1383,42 +1383,42 @@
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1437,7 +1437,7 @@
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>70</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -1463,21 +1463,21 @@
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
@@ -1503,7 +1503,7 @@
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -1515,19 +1515,19 @@
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>79</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>83</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>78</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
@@ -1581,7 +1581,7 @@
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>69</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
@@ -1607,7 +1607,7 @@
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>22</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>32</v>
@@ -1635,16 +1635,16 @@
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -1663,7 +1663,7 @@
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>24</v>
@@ -1677,206 +1677,206 @@
     </row>
     <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>113</v>
+        <v>176</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D44" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D48" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>6</v>
@@ -1890,55 +1890,55 @@
     </row>
     <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D50" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D53" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>25</v>
@@ -1952,32 +1952,32 @@
     </row>
     <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>75</v>
@@ -1991,38 +1991,38 @@
     </row>
     <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D58" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -2047,116 +2047,116 @@
         <v>30</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D62" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D65" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D66" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D67" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D68" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>238</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" t="s">
         <v>244</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C69" t="s">
-        <v>244</v>
-      </c>
-      <c r="D69" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D70" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/Baernreither_orgNames_2023.xlsx
+++ b/data/xlsx/Baernreither_orgNames_2023.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -134,12 +126,6 @@
     <t>Spalte4</t>
   </si>
   <si>
-    <t>Spalte 1</t>
-  </si>
-  <si>
-    <t>Spalte 2</t>
-  </si>
-  <si>
     <t>AltoAdige</t>
   </si>
   <si>
@@ -179,9 +165,6 @@
     <t>WienerZeitung</t>
   </si>
   <si>
-    <t>key=wert</t>
-  </si>
-  <si>
     <t>&lt;orgName key="AltoAdige" ref=""&gt;</t>
   </si>
   <si>
@@ -783,13 +766,22 @@
   </si>
   <si>
     <t>&lt;orgName key="VerfassungstreuerGrossgrundbesitz" ref="https://d-nb.info/gnd/2120665-X"&gt;</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,7 +867,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -945,9 +937,9 @@
     <sortCondition ref="A30:A61"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Spalte 1" dataDxfId="1"/>
-    <tableColumn id="2" name="Spalte 2"/>
-    <tableColumn id="3" name="key=wert" dataDxfId="0"/>
+    <tableColumn id="1" name="Name" dataDxfId="1"/>
+    <tableColumn id="2" name="PID"/>
+    <tableColumn id="3" name="key" dataDxfId="0"/>
     <tableColumn id="4" name="Spalte4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1209,7 +1201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,35 +1211,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="119" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="94.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="94.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.95">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
@@ -1256,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.95">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1267,13 +1259,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.95">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1281,13 +1273,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1295,67 +1287,67 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
         <v>147</v>
       </c>
-      <c r="D6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="15.95">
       <c r="A7" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="D7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.95">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.95">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.95">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1364,12 +1356,12 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.95">
       <c r="A11" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>16</v>
@@ -1378,50 +1370,50 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.95">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1429,55 +1421,55 @@
         <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.95">
       <c r="A16" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.95">
       <c r="A17" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.95">
       <c r="A18" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.95">
       <c r="A19" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
@@ -1486,397 +1478,397 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.95">
       <c r="A20" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.95">
       <c r="A21" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.95">
       <c r="A22" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.95">
       <c r="A23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.95">
+      <c r="A24" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.95">
+      <c r="A25" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.95">
+      <c r="A26" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.95">
       <c r="A27" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.95">
       <c r="A28" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.95">
       <c r="A29" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.95">
       <c r="A30" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.95">
       <c r="A31" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.95">
       <c r="A32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.95">
       <c r="A33" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.95">
+      <c r="A34" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30">
+      <c r="A35" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.95">
+      <c r="A36" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.95">
+      <c r="A37" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.95">
+      <c r="A38" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.95">
+      <c r="A39" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.95">
+      <c r="A40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30">
+      <c r="A41" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.95">
+      <c r="A42" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.95">
+      <c r="A43" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30">
+      <c r="A44" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30">
+      <c r="A45" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.95">
+      <c r="A46" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30">
+      <c r="A47" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D47" t="s">
         <v>247</v>
       </c>
-      <c r="D41" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D47" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:4" ht="15.95">
       <c r="A48" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.95">
       <c r="A49" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>6</v>
@@ -1885,147 +1877,147 @@
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.95">
       <c r="A50" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.95">
       <c r="A51" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.95">
+      <c r="A52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:4" ht="15.95">
       <c r="A53" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.95">
       <c r="A54" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.95">
       <c r="A55" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.95">
       <c r="A56" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.95">
+      <c r="A57" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.95">
+      <c r="A58" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
         <v>154</v>
       </c>
-      <c r="D56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:4" ht="15.95">
       <c r="A59" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2033,13 +2025,13 @@
         <v>28</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>29</v>
       </c>
@@ -2047,116 +2039,116 @@
         <v>30</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C64" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="D64" t="s">
         <v>213</v>
       </c>
-      <c r="B64" s="4" t="s">
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="B65" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D64" t="s">
+      <c r="C65" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D65" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30">
+      <c r="A67" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C67" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+      <c r="D67" t="s">
         <v>225</v>
       </c>
-      <c r="B67" s="4" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="30">
+      <c r="A68" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="B68" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="D67" t="s">
+      <c r="C68" s="8" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A68" s="8" t="s">
+      <c r="D68" t="s">
         <v>229</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D68" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" t="s">
+        <v>235</v>
+      </c>
+      <c r="D69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>237</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C70" t="s">
         <v>239</v>
       </c>
-      <c r="C69" t="s">
-        <v>238</v>
-      </c>
-      <c r="D69" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="D70" t="s">
         <v>240</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C70" t="s">
-        <v>242</v>
-      </c>
-      <c r="D70" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/Baernreither_orgNames_2023.xlsx
+++ b/data/xlsx/Baernreither_orgNames_2023.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="254">
   <si>
     <t xml:space="preserve">Arsenal </t>
   </si>
@@ -627,9 +635,6 @@
     <t>Ministerratspraesidium</t>
   </si>
   <si>
-    <t>&lt;orgName key="Ministerratspraesidium" ref="https://d-nb.info/gnd/1129291480"&gt;</t>
-  </si>
-  <si>
     <t>Ministerratspräsidium/Pressbüro</t>
   </si>
   <si>
@@ -775,13 +780,25 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>Ministerien/Handelsministerium</t>
+  </si>
+  <si>
+    <t>Handelministerium</t>
+  </si>
+  <si>
+    <t>https://d-nb.info/gnd/121098-1</t>
+  </si>
+  <si>
+    <t>&lt;orgName key="Handelsministerium" ref="https://d-nb.info/gnd/121098-1"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -867,7 +884,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -931,8 +948,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D67" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="A1:D67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D68" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:D68"/>
   <sortState ref="A2:D61">
     <sortCondition ref="A30:A61"/>
   </sortState>
@@ -1201,7 +1218,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1209,35 +1226,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="200" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.140625" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="94.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="94.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
         <v>249</v>
-      </c>
-      <c r="C1" t="s">
-        <v>250</v>
       </c>
       <c r="D1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>135</v>
       </c>
@@ -1251,7 +1268,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.95">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +1282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.95">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1287,13 +1304,13 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>143</v>
       </c>
@@ -1307,7 +1324,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.95">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>142</v>
       </c>
@@ -1321,7 +1338,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.95">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>180</v>
       </c>
@@ -1333,7 +1350,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.95">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>181</v>
       </c>
@@ -1345,7 +1362,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.95">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>136</v>
       </c>
@@ -1359,7 +1376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.95">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>137</v>
       </c>
@@ -1373,7 +1390,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>138</v>
       </c>
@@ -1381,826 +1398,837 @@
         <v>17</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
         <v>242</v>
       </c>
-      <c r="D12" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
+      <c r="D15" t="s">
         <v>203</v>
       </c>
-      <c r="D14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.95">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.95">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.95">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.95">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.95">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.95">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.95">
-      <c r="A21" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.95">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.95">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.95">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.95">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.95">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.95">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.95">
-      <c r="A28" s="2" t="s">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.95">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.95">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.95">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.95">
-      <c r="A32" s="2" t="s">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.95">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.95">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.95">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.95">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.95">
-      <c r="A38" s="5" t="s">
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.95">
-      <c r="A39" s="5" t="s">
+      <c r="D39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.95">
-      <c r="A40" s="5" t="s">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D48" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.95">
-      <c r="A42" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.95">
-      <c r="A43" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30">
-      <c r="A44" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30">
-      <c r="A45" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.95">
-      <c r="A46" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="30">
-      <c r="A47" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D47" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.95">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="2" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.95">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.95">
-      <c r="A50" s="2" t="s">
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="2" t="s">
+      <c r="D51" t="s">
         <v>206</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.95">
-      <c r="A51" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.95">
-      <c r="A52" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.95">
-      <c r="A53" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.95">
-      <c r="A54" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.95">
-      <c r="A55" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.95">
-      <c r="A56" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.95">
-      <c r="A57" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.95">
-      <c r="A58" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.95">
-      <c r="A59" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
+      <c r="C64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" t="s">
         <v>208</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
+      <c r="B65" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D65" t="s">
         <v>212</v>
       </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
+      <c r="B66" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C66" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" t="s">
         <v>215</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
+    </row>
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="30">
-      <c r="A67" s="2" t="s">
+      <c r="B68" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="C68" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="D68" t="s">
         <v>224</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="30">
-      <c r="A68" s="8" t="s">
+      <c r="B69" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="C69" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="D69" t="s">
         <v>228</v>
       </c>
-      <c r="D68" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C69" t="s">
-        <v>235</v>
-      </c>
-      <c r="D69" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>237</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="C70" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D70" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>236</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C71" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B30" r:id="rId2"/>
-    <hyperlink ref="B31" r:id="rId3"/>
-    <hyperlink ref="B62" r:id="rId4"/>
-    <hyperlink ref="B61" r:id="rId5"/>
-    <hyperlink ref="B56" r:id="rId6"/>
-    <hyperlink ref="B54" r:id="rId7"/>
-    <hyperlink ref="B33" r:id="rId8"/>
-    <hyperlink ref="B16" r:id="rId9"/>
-    <hyperlink ref="B29" r:id="rId10"/>
-    <hyperlink ref="B27" r:id="rId11"/>
-    <hyperlink ref="B32" r:id="rId12"/>
+    <hyperlink ref="B31" r:id="rId2"/>
+    <hyperlink ref="B32" r:id="rId3"/>
+    <hyperlink ref="B63" r:id="rId4"/>
+    <hyperlink ref="B62" r:id="rId5"/>
+    <hyperlink ref="B57" r:id="rId6"/>
+    <hyperlink ref="B55" r:id="rId7"/>
+    <hyperlink ref="B34" r:id="rId8"/>
+    <hyperlink ref="B17" r:id="rId9"/>
+    <hyperlink ref="B30" r:id="rId10"/>
+    <hyperlink ref="B28" r:id="rId11"/>
+    <hyperlink ref="B33" r:id="rId12"/>
     <hyperlink ref="B12" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId14"/>
     <hyperlink ref="B11" r:id="rId15"/>
     <hyperlink ref="B5" r:id="rId16"/>
     <hyperlink ref="B4" r:id="rId17"/>
     <hyperlink ref="B3" r:id="rId18"/>
-    <hyperlink ref="B49" r:id="rId19"/>
+    <hyperlink ref="B50" r:id="rId19"/>
     <hyperlink ref="B6" r:id="rId20"/>
-    <hyperlink ref="B19" r:id="rId21"/>
+    <hyperlink ref="B20" r:id="rId21"/>
     <hyperlink ref="B2" r:id="rId22"/>
-    <hyperlink ref="D16" r:id="rId23" display="https://d-nb.info/gnd/35882-4"/>
-    <hyperlink ref="B58" r:id="rId24"/>
-    <hyperlink ref="B57" r:id="rId25"/>
-    <hyperlink ref="B25" r:id="rId26"/>
-    <hyperlink ref="B23" r:id="rId27"/>
-    <hyperlink ref="B24" r:id="rId28"/>
-    <hyperlink ref="B47" r:id="rId29"/>
-    <hyperlink ref="B46" r:id="rId30"/>
-    <hyperlink ref="B45" r:id="rId31"/>
-    <hyperlink ref="B44" r:id="rId32"/>
-    <hyperlink ref="B43" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34"/>
-    <hyperlink ref="B38" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B34" r:id="rId37"/>
-    <hyperlink ref="B36" r:id="rId38"/>
-    <hyperlink ref="B18" r:id="rId39"/>
-    <hyperlink ref="B53" r:id="rId40"/>
+    <hyperlink ref="D17" r:id="rId23" display="https://d-nb.info/gnd/35882-4"/>
+    <hyperlink ref="B59" r:id="rId24"/>
+    <hyperlink ref="B58" r:id="rId25"/>
+    <hyperlink ref="B26" r:id="rId26"/>
+    <hyperlink ref="B24" r:id="rId27"/>
+    <hyperlink ref="B25" r:id="rId28"/>
+    <hyperlink ref="B48" r:id="rId29"/>
+    <hyperlink ref="B47" r:id="rId30"/>
+    <hyperlink ref="B46" r:id="rId31"/>
+    <hyperlink ref="B45" r:id="rId32"/>
+    <hyperlink ref="B44" r:id="rId33"/>
+    <hyperlink ref="B40" r:id="rId34"/>
+    <hyperlink ref="B39" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B35" r:id="rId37"/>
+    <hyperlink ref="B37" r:id="rId38"/>
+    <hyperlink ref="B19" r:id="rId39"/>
+    <hyperlink ref="B54" r:id="rId40"/>
     <hyperlink ref="B7" r:id="rId41"/>
-    <hyperlink ref="B64" r:id="rId42" tooltip="https://d-nb.info/gnd/260143-6"/>
-    <hyperlink ref="B65" r:id="rId43" tooltip="https://d-nb.info/gnd/35881-2"/>
-    <hyperlink ref="B67" r:id="rId44" tooltip="https://d-nb.info/gnd/67240-3"/>
-    <hyperlink ref="B68" r:id="rId45" tooltip="https://d-nb.info/gnd/1232081655"/>
-    <hyperlink ref="B42" r:id="rId46"/>
-    <hyperlink ref="B69" r:id="rId47" tooltip="https://d-nb.info/gnd/35887-3"/>
-    <hyperlink ref="B70" r:id="rId48" tooltip="https://d-nb.info/gnd/1012156-0"/>
+    <hyperlink ref="B65" r:id="rId42" tooltip="https://d-nb.info/gnd/260143-6"/>
+    <hyperlink ref="B66" r:id="rId43" tooltip="https://d-nb.info/gnd/35881-2"/>
+    <hyperlink ref="B68" r:id="rId44" tooltip="https://d-nb.info/gnd/67240-3"/>
+    <hyperlink ref="B69" r:id="rId45" tooltip="https://d-nb.info/gnd/1232081655"/>
+    <hyperlink ref="B43" r:id="rId46"/>
+    <hyperlink ref="B70" r:id="rId47" tooltip="https://d-nb.info/gnd/35887-3"/>
+    <hyperlink ref="B71" r:id="rId48" tooltip="https://d-nb.info/gnd/1012156-0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>

--- a/data/xlsx/Baernreither_orgNames_2023.xlsx
+++ b/data/xlsx/Baernreither_orgNames_2023.xlsx
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="200" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScale="200" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
